--- a/03_Reporting/Results/evaluationDLC.xlsx
+++ b/03_Reporting/Results/evaluationDLC.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>Var1</t>
   </si>
@@ -487,6 +487,57 @@
   </si>
   <si>
     <t>HC paw</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>Label name</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
+    <t>Neck</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>End tail</t>
+  </si>
+  <si>
+    <t>FL paw</t>
+  </si>
+  <si>
+    <t>FR paw</t>
+  </si>
+  <si>
+    <t>Tape</t>
+  </si>
+  <si>
+    <t>HL paw</t>
+  </si>
+  <si>
+    <t>HF paw</t>
   </si>
   <si>
     <t>True</t>
@@ -564,30 +615,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B2" s="0">
         <v>0.95506216696269985</v>
@@ -610,7 +661,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="B3" s="0">
         <v>0.98756660746003555</v>
@@ -633,7 +684,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B4" s="0">
         <v>0.99289520426287747</v>
@@ -656,7 +707,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="B5" s="0">
         <v>0.98934280639431615</v>
@@ -679,7 +730,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="B6" s="0">
         <v>0.93783303730017764</v>
@@ -702,7 +753,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="B7" s="0">
         <v>0.8809946714031972</v>
@@ -725,7 +776,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B8" s="0">
         <v>0.89875666074600358</v>
@@ -748,7 +799,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="B9" s="0">
         <v>0.95381882770870341</v>
@@ -771,7 +822,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="B10" s="0">
         <v>0.98046181172291291</v>
@@ -794,7 +845,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="B11" s="0">
         <v>0.9751332149200711</v>
